--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dcl/mysql_dcl_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dcl/mysql_dcl_cases.xlsx
@@ -203,32 +203,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>mydcltest2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MydclTest3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mydcltest4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>select host,name,AUTHENTICATION_STRING from mysql.user where name='MYDCLTEST1'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mydcltest2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>select host,name,AUTHENTICATION_STRING from mysql.user where name='mydcltest2'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MydclTest3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>select host,name,AUTHENTICATION_STRING from mysql.user where name='MydclTest3'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mydcltest4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>select name,AUTHENTICATION_STRING from mysql.user where name='mydcltest4'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -604,7 +600,7 @@
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -723,7 +719,7 @@
         <v>45</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>40</v>
@@ -749,7 +745,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>26</v>
@@ -761,7 +757,7 @@
         <v>48</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>41</v>
@@ -787,7 +783,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>26</v>
@@ -799,7 +795,7 @@
         <v>46</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>42</v>
@@ -825,7 +821,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>26</v>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dcl/mysql_dcl_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dcl/mysql_dcl_cases.xlsx
@@ -215,16 +215,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select host,name,AUTHENTICATION_STRING from mysql.user where name='MYDCLTEST1'</t>
-  </si>
-  <si>
-    <t>select host,name,AUTHENTICATION_STRING from mysql.user where name='mydcltest2'</t>
-  </si>
-  <si>
-    <t>select host,name,AUTHENTICATION_STRING from mysql.user where name='MydclTest3'</t>
-  </si>
-  <si>
-    <t>select name,AUTHENTICATION_STRING from mysql.user where name='mydcltest4'</t>
+    <t>select host,user,AUTHENTICATION_STRING from mysql.user where user='MYDCLTEST1'</t>
+  </si>
+  <si>
+    <t>select host,user,AUTHENTICATION_STRING from mysql.user where user='mydcltest2'</t>
+  </si>
+  <si>
+    <t>select host,user,AUTHENTICATION_STRING from mysql.user where user='MydclTest3'</t>
+  </si>
+  <si>
+    <t>select user,AUTHENTICATION_STRING from mysql.user where user='mydcltest4'</t>
   </si>
 </sst>
 </file>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
